--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl28-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl28-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.006581</v>
+        <v>0.115543</v>
       </c>
       <c r="H2">
-        <v>0.019743</v>
+        <v>0.346629</v>
       </c>
       <c r="I2">
-        <v>0.02898608174770965</v>
+        <v>0.7111155332715143</v>
       </c>
       <c r="J2">
-        <v>0.02898608174770965</v>
+        <v>0.7111155332715143</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N2">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O2">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P2">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q2">
-        <v>0.0006773998793333333</v>
+        <v>0.02090153612833333</v>
       </c>
       <c r="R2">
-        <v>0.006096598914000001</v>
+        <v>0.188113825155</v>
       </c>
       <c r="S2">
-        <v>0.002196143511567125</v>
+        <v>0.0678890038780134</v>
       </c>
       <c r="T2">
-        <v>0.002196143511567125</v>
+        <v>0.0678890038780134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.006581</v>
+        <v>0.115543</v>
       </c>
       <c r="H3">
-        <v>0.019743</v>
+        <v>0.346629</v>
       </c>
       <c r="I3">
-        <v>0.02898608174770965</v>
+        <v>0.7111155332715143</v>
       </c>
       <c r="J3">
-        <v>0.02898608174770965</v>
+        <v>0.7111155332715143</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N3">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O3">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P3">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q3">
-        <v>0.006648108650666667</v>
+        <v>0.181718751191</v>
       </c>
       <c r="R3">
-        <v>0.059832977856</v>
+        <v>1.635468760719</v>
       </c>
       <c r="S3">
-        <v>0.02155329683808585</v>
+        <v>0.5902295854509173</v>
       </c>
       <c r="T3">
-        <v>0.02155329683808585</v>
+        <v>0.5902295854509173</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.006581</v>
+        <v>0.115543</v>
       </c>
       <c r="H4">
-        <v>0.019743</v>
+        <v>0.346629</v>
       </c>
       <c r="I4">
-        <v>0.02898608174770965</v>
+        <v>0.7111155332715143</v>
       </c>
       <c r="J4">
-        <v>0.02898608174770965</v>
+        <v>0.7111155332715143</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N4">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O4">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P4">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q4">
-        <v>0.00161524064</v>
+        <v>0.01631659731666667</v>
       </c>
       <c r="R4">
-        <v>0.01453716576</v>
+        <v>0.14684937585</v>
       </c>
       <c r="S4">
-        <v>0.005236641398056676</v>
+        <v>0.05299694394258356</v>
       </c>
       <c r="T4">
-        <v>0.005236641398056675</v>
+        <v>0.05299694394258356</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +711,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.115543</v>
+        <v>0.04693833333333333</v>
       </c>
       <c r="H5">
-        <v>0.346629</v>
+        <v>0.140815</v>
       </c>
       <c r="I5">
-        <v>0.508910324171952</v>
+        <v>0.2888844667284857</v>
       </c>
       <c r="J5">
-        <v>0.508910324171952</v>
+        <v>0.2888844667284857</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N5">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O5">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P5">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q5">
-        <v>0.01189314910466667</v>
+        <v>0.008491066269444443</v>
       </c>
       <c r="R5">
-        <v>0.107038341942</v>
+        <v>0.07641959642499999</v>
       </c>
       <c r="S5">
-        <v>0.03855781944339771</v>
+        <v>0.02757931414013962</v>
       </c>
       <c r="T5">
-        <v>0.03855781944339771</v>
+        <v>0.02757931414013962</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.115543</v>
+        <v>0.04693833333333333</v>
       </c>
       <c r="H6">
-        <v>0.346629</v>
+        <v>0.140815</v>
       </c>
       <c r="I6">
-        <v>0.508910324171952</v>
+        <v>0.2888844667284857</v>
       </c>
       <c r="J6">
-        <v>0.508910324171952</v>
+        <v>0.2888844667284857</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N6">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O6">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P6">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q6">
-        <v>0.1167212304853334</v>
+        <v>0.07382165355166667</v>
       </c>
       <c r="R6">
-        <v>1.050491074368</v>
+        <v>0.664394881965</v>
       </c>
       <c r="S6">
-        <v>0.3784124869416432</v>
+        <v>0.2397756075667959</v>
       </c>
       <c r="T6">
-        <v>0.3784124869416431</v>
+        <v>0.2397756075667959</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,232 +850,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.115543</v>
+        <v>0.04693833333333333</v>
       </c>
       <c r="H7">
-        <v>0.346629</v>
+        <v>0.140815</v>
       </c>
       <c r="I7">
-        <v>0.508910324171952</v>
+        <v>0.2888844667284857</v>
       </c>
       <c r="J7">
-        <v>0.508910324171952</v>
+        <v>0.2888844667284857</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N7">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O7">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P7">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q7">
-        <v>0.02835887392</v>
+        <v>0.006628474972222223</v>
       </c>
       <c r="R7">
-        <v>0.25522986528</v>
+        <v>0.05965627475</v>
       </c>
       <c r="S7">
-        <v>0.09194001778691117</v>
+        <v>0.02152954502155014</v>
       </c>
       <c r="T7">
-        <v>0.09194001778691116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.104916</v>
-      </c>
-      <c r="H8">
-        <v>0.314748</v>
-      </c>
-      <c r="I8">
-        <v>0.4621035940803382</v>
-      </c>
-      <c r="J8">
-        <v>0.4621035940803382</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.1029326666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.308798</v>
-      </c>
-      <c r="O8">
-        <v>0.07576544945543232</v>
-      </c>
-      <c r="P8">
-        <v>0.07576544945543232</v>
-      </c>
-      <c r="Q8">
-        <v>0.010799283656</v>
-      </c>
-      <c r="R8">
-        <v>0.09719355290400002</v>
-      </c>
-      <c r="S8">
-        <v>0.03501148650046748</v>
-      </c>
-      <c r="T8">
-        <v>0.03501148650046748</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.104916</v>
-      </c>
-      <c r="H9">
-        <v>0.314748</v>
-      </c>
-      <c r="I9">
-        <v>0.4621035940803382</v>
-      </c>
-      <c r="J9">
-        <v>0.4621035940803382</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.010197333333333</v>
-      </c>
-      <c r="N9">
-        <v>3.030592</v>
-      </c>
-      <c r="O9">
-        <v>0.7435740030571362</v>
-      </c>
-      <c r="P9">
-        <v>0.7435740030571361</v>
-      </c>
-      <c r="Q9">
-        <v>0.105985863424</v>
-      </c>
-      <c r="R9">
-        <v>0.9538727708160001</v>
-      </c>
-      <c r="S9">
-        <v>0.343608219277407</v>
-      </c>
-      <c r="T9">
-        <v>0.343608219277407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.104916</v>
-      </c>
-      <c r="H10">
-        <v>0.314748</v>
-      </c>
-      <c r="I10">
-        <v>0.4621035940803382</v>
-      </c>
-      <c r="J10">
-        <v>0.4621035940803382</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.24544</v>
-      </c>
-      <c r="N10">
-        <v>0.73632</v>
-      </c>
-      <c r="O10">
-        <v>0.1806605474874317</v>
-      </c>
-      <c r="P10">
-        <v>0.1806605474874316</v>
-      </c>
-      <c r="Q10">
-        <v>0.02575058304</v>
-      </c>
-      <c r="R10">
-        <v>0.23175524736</v>
-      </c>
-      <c r="S10">
-        <v>0.08348388830246378</v>
-      </c>
-      <c r="T10">
-        <v>0.08348388830246378</v>
+        <v>0.02152954502155014</v>
       </c>
     </row>
   </sheetData>
